--- a/console/Networking/agExcel/create.xlsx
+++ b/console/Networking/agExcel/create.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658183D6-C351-204F-9958-F4BF0D7E986F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="720" yWindow="-15260" windowWidth="27540" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <r>
       <rPr>
@@ -84,18 +90,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>为保障最优的业务可用性，建议选择多可用区</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>create_i18nKey_4</t>
     </r>
   </si>
@@ -392,14 +386,40 @@
   </si>
   <si>
     <t>Instance type configured by the instance template is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can't be blank and only supports for Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”. No more than 32 characters</t>
+  </si>
+  <si>
+    <t>No more than 256 characters.</t>
+  </si>
+  <si>
+    <t>The instance type configured in the instance template is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为保障最优的业务可用性，建议选择多可用区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is recommented to select multiple Availability Zones for optimal business availability.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The instance type configured in the instance template has sold out in all the  Availability Zones configured for the AG.'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -788,22 +808,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.75" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="28.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="83.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -822,139 +843,163 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="38">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="66">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="19">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="19">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="19">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="57">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="38">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +1007,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B2 A4:B14 A3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/console/Networking/agExcel/create.xlsx
+++ b/console/Networking/agExcel/create.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658183D6-C351-204F-9958-F4BF0D7E986F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="-15260" windowWidth="27540" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="-15255" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <r>
       <rPr>
@@ -352,24 +346,15 @@
     <t>Availability Zone</t>
   </si>
   <si>
-    <t>To guarantee the optimal business availability, it is suggested to choose multiple Availability Zones</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>'The name cannot be null; it only supports Chinese, numbers, uppercase and lowercase letters, English underline “_” and line-through “-”, with at most 32 characters'</t>
-  </si>
-  <si>
     <t>'Name'</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>'Description cannot exceed 256 characters'</t>
-  </si>
-  <si>
     <t>'Description'</t>
   </si>
   <si>
@@ -377,16 +362,6 @@
   </si>
   <si>
     <t>'The connection name only supports Chinese, numbers, uppercase and lowercase letters, English underline “_” and line-through “-”'</t>
-  </si>
-  <si>
-    <t>'Instance types configured for the instance template are sold out in Availability Zones configured for the Availability Groups.'</t>
-  </si>
-  <si>
-    <t>Sold Out</t>
-  </si>
-  <si>
-    <t>Instance type configured by the instance template is</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Can't be blank and only supports for Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”. No more than 32 characters</t>
@@ -418,8 +393,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -808,23 +783,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="83.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="83.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -846,21 +821,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="38">
+    <row r="3" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,11 +840,11 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="66">
+    <row r="5" spans="1:4" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,13 +852,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -894,11 +863,11 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="19">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,11 +875,11 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="19">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -918,13 +887,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -932,11 +898,11 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="19">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -944,11 +910,11 @@
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="57">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -956,11 +922,11 @@
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="38">
+    <row r="12" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -968,13 +934,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -982,13 +945,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -996,10 +956,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
